--- a/问题信息.xlsx
+++ b/问题信息.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E12D99-A162-423C-93F5-9BF243DF0072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD74FD-1B58-4061-87C5-2185DC520D02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>https://m.wanplus.com/match/30344.html#data</t>
   </si>
@@ -59,9 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-KPL-SPRING-PRE</t>
-  </si>
-  <si>
     <t>https://m.wanplus.com/match/30689.html#data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-KPL-SPRING-PRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +87,23 @@
   </si>
   <si>
     <t>视频是2017-01-15日的比赛信息（Best就是现在的EDG.M）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.wanplus.com/match/30769.html#data</t>
+  </si>
+  <si>
+    <t>2017年 KPL春季预选赛</t>
+  </si>
+  <si>
+    <t>视频中没有一血播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.wanplus.com/match/30892.html#data</t>
+  </si>
+  <si>
+    <t>视频和数据对不上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -456,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -494,72 +504,94 @@
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
